--- a/Files/main.xlsx
+++ b/Files/main.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pypa\PycharmProjects\diplome\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC2A069-CA4F-4B56-8386-E63B46982791}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD7EADB-BB5E-4684-BCAA-F40B4EF3837F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Таблица 1</t>
   </si>
@@ -42,9 +42,6 @@
     <t xml:space="preserve">             Шкав</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Стул</t>
   </si>
   <si>
@@ -55,6 +52,18 @@
   </si>
   <si>
     <t>10тбайт/c</t>
+  </si>
+  <si>
+    <t>10 Мбар</t>
+  </si>
+  <si>
+    <t>Пбайт тест</t>
+  </si>
+  <si>
+    <t>2 Кбит</t>
+  </si>
+  <si>
+    <t>тест Гбит</t>
   </si>
 </sst>
 </file>
@@ -408,15 +417,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
   </cols>
@@ -435,7 +445,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -444,7 +454,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -461,7 +471,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -474,12 +484,38 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
+      <c r="D4" s="1">
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Files/main.xlsx
+++ b/Files/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pypa\PycharmProjects\diplome\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD7EADB-BB5E-4684-BCAA-F40B4EF3837F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA53E97E-9FE9-4855-B6C6-BEC279BFAAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="4380" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Таблица 1</t>
   </si>
@@ -64,6 +64,30 @@
   </si>
   <si>
     <t>тест Гбит</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>asdv</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>adada</t>
+  </si>
+  <si>
+    <t>adadad</t>
   </si>
 </sst>
 </file>
@@ -417,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +455,7 @@
     <col min="5" max="5" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -440,7 +464,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -457,7 +481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -473,8 +497,17 @@
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -490,8 +523,17 @@
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -505,8 +547,17 @@
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -516,6 +567,32 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
